--- a/biology/Microbiologie/Antibiogouvernance/Antibiogouvernance.xlsx
+++ b/biology/Microbiologie/Antibiogouvernance/Antibiogouvernance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’antibiogouvernance ou gouvernance relative aux antibiotiques est un ensemble de pratiques qui visent à se doter des moyens pour lutter contre l’antibiorésistance ou résistance aux antibiotiques. Les modifications des pratiques en usage concernent aussi bien le secteur bioalimentaire que les milieux hospitaliers et vétérinaires[1].  Elle s'appuie sur le constat "...que 30 % à 50 % des prescriptions d’antibiotiques sont inappropriées, et ce, particulièrement lors d’infections respiratoires virales comme le rhume ou la grippe[2]," favorisant ainsi le développement de certaines souches de bactéries résistantes et annulant par le fait même leur efficacité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’antibiogouvernance ou gouvernance relative aux antibiotiques est un ensemble de pratiques qui visent à se doter des moyens pour lutter contre l’antibiorésistance ou résistance aux antibiotiques. Les modifications des pratiques en usage concernent aussi bien le secteur bioalimentaire que les milieux hospitaliers et vétérinaires.  Elle s'appuie sur le constat "...que 30 % à 50 % des prescriptions d’antibiotiques sont inappropriées, et ce, particulièrement lors d’infections respiratoires virales comme le rhume ou la grippe," favorisant ainsi le développement de certaines souches de bactéries résistantes et annulant par le fait même leur efficacité.
 </t>
         </is>
       </c>
